--- a/DMSNewVSale_2025-10-30_11-59.xlsx
+++ b/DMSNewVSale_2025-10-30_11-59.xlsx
@@ -41,22 +41,31 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANDODERMA EXTRA EMOLLIENT GEL 50 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>231.00</t>
   </si>
   <si>
     <t>231.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
   </si>
   <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
@@ -902,15 +911,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>15</v>
@@ -922,28 +931,28 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>15</v>
@@ -955,14 +964,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -972,11 +981,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>15</v>
@@ -988,20 +997,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1012,7 +1021,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1021,31 +1030,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1054,14 +1063,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1071,14 +1080,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1087,14 +1096,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1104,14 +1113,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1120,20 +1129,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1166,7 +1175,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1193,13 +1202,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1269,11 +1278,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>15</v>
@@ -1285,14 +1294,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1302,14 +1311,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1318,68 +1327,101 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>66</v>
       </c>
-      <c t="s" r="Q21" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" ht="26.25" customHeight="1">
-      <c r="N22" s="13">
-        <v>1551.1400000000001</v>
-      </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
         <v>67</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>20</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>68</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="N23" s="13">
+        <v>1661.1400000000001</v>
+      </c>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>70</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>71</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>72</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1463,10 +1505,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
